--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sema7a-Plxnc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.1201829124331</v>
+        <v>23.128865</v>
       </c>
       <c r="H2">
-        <v>16.1201829124331</v>
+        <v>69.386595</v>
       </c>
       <c r="I2">
-        <v>0.832625197150118</v>
+        <v>0.7917836846260858</v>
       </c>
       <c r="J2">
-        <v>0.832625197150118</v>
+        <v>0.7917836846260858</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.91287988417372</v>
+        <v>23.76805833333333</v>
       </c>
       <c r="N2">
-        <v>1.91287988417372</v>
+        <v>71.304175</v>
       </c>
       <c r="O2">
-        <v>0.6646203333771014</v>
+        <v>0.8847414975178436</v>
       </c>
       <c r="P2">
-        <v>0.6646203333771014</v>
+        <v>0.8847414975178437</v>
       </c>
       <c r="Q2">
-        <v>30.83597362239421</v>
+        <v>549.7282125037917</v>
       </c>
       <c r="R2">
-        <v>30.83597362239421</v>
+        <v>4947.553912534125</v>
       </c>
       <c r="S2">
-        <v>0.5533796361080862</v>
+        <v>0.7005238828462792</v>
       </c>
       <c r="T2">
-        <v>0.5533796361080862</v>
+        <v>0.7005238828462793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.1201829124331</v>
+        <v>23.128865</v>
       </c>
       <c r="H3">
-        <v>16.1201829124331</v>
+        <v>69.386595</v>
       </c>
       <c r="I3">
-        <v>0.832625197150118</v>
+        <v>0.7917836846260858</v>
       </c>
       <c r="J3">
-        <v>0.832625197150118</v>
+        <v>0.7917836846260858</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.965274436585474</v>
+        <v>2.050040666666666</v>
       </c>
       <c r="N3">
-        <v>0.965274436585474</v>
+        <v>6.150122</v>
       </c>
       <c r="O3">
-        <v>0.3353796666228988</v>
+        <v>0.07631065289230869</v>
       </c>
       <c r="P3">
-        <v>0.3353796666228988</v>
+        <v>0.07631065289230871</v>
       </c>
       <c r="Q3">
-        <v>15.56040047845365</v>
+        <v>47.41511382384333</v>
       </c>
       <c r="R3">
-        <v>15.56040047845365</v>
+        <v>426.73602441459</v>
       </c>
       <c r="S3">
-        <v>0.2792455610420319</v>
+        <v>0.06042152992329445</v>
       </c>
       <c r="T3">
-        <v>0.2792455610420319</v>
+        <v>0.06042152992329446</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.13464063309674</v>
+        <v>23.128865</v>
       </c>
       <c r="H4">
-        <v>1.13464063309674</v>
+        <v>69.386595</v>
       </c>
       <c r="I4">
-        <v>0.05860543803743445</v>
+        <v>0.7917836846260858</v>
       </c>
       <c r="J4">
-        <v>0.05860543803743445</v>
+        <v>0.7917836846260858</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.91287988417372</v>
+        <v>1.046311</v>
       </c>
       <c r="N4">
-        <v>1.91287988417372</v>
+        <v>3.138933</v>
       </c>
       <c r="O4">
-        <v>0.6646203333771014</v>
+        <v>0.03894784958984768</v>
       </c>
       <c r="P4">
-        <v>0.6646203333771014</v>
+        <v>0.03894784958984768</v>
       </c>
       <c r="Q4">
-        <v>2.170431242816889</v>
+        <v>24.199985867015</v>
       </c>
       <c r="R4">
-        <v>2.170431242816889</v>
+        <v>217.799872803135</v>
       </c>
       <c r="S4">
-        <v>0.03895036576615074</v>
+        <v>0.03083827185651218</v>
       </c>
       <c r="T4">
-        <v>0.03895036576615074</v>
+        <v>0.03083827185651218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.13464063309674</v>
+        <v>1.158105666666667</v>
       </c>
       <c r="H5">
-        <v>1.13464063309674</v>
+        <v>3.474317</v>
       </c>
       <c r="I5">
-        <v>0.05860543803743445</v>
+        <v>0.03964609469334889</v>
       </c>
       <c r="J5">
-        <v>0.05860543803743445</v>
+        <v>0.03964609469334889</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.965274436585474</v>
+        <v>23.76805833333333</v>
       </c>
       <c r="N5">
-        <v>0.965274436585474</v>
+        <v>71.304175</v>
       </c>
       <c r="O5">
-        <v>0.3353796666228988</v>
+        <v>0.8847414975178436</v>
       </c>
       <c r="P5">
-        <v>0.3353796666228988</v>
+        <v>0.8847414975178437</v>
       </c>
       <c r="Q5">
-        <v>1.095239597839441</v>
+        <v>27.52592304149722</v>
       </c>
       <c r="R5">
-        <v>1.095239597839441</v>
+        <v>247.733307373475</v>
       </c>
       <c r="S5">
-        <v>0.01965507227128372</v>
+        <v>0.03507654518972773</v>
       </c>
       <c r="T5">
-        <v>0.01965507227128372</v>
+        <v>0.03507654518972773</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.10584793980201</v>
+        <v>1.158105666666667</v>
       </c>
       <c r="H6">
-        <v>2.10584793980201</v>
+        <v>3.474317</v>
       </c>
       <c r="I6">
-        <v>0.1087693648124475</v>
+        <v>0.03964609469334889</v>
       </c>
       <c r="J6">
-        <v>0.1087693648124475</v>
+        <v>0.03964609469334889</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.91287988417372</v>
+        <v>2.050040666666666</v>
       </c>
       <c r="N6">
-        <v>1.91287988417372</v>
+        <v>6.150122</v>
       </c>
       <c r="O6">
-        <v>0.6646203333771014</v>
+        <v>0.07631065289230869</v>
       </c>
       <c r="P6">
-        <v>0.6646203333771014</v>
+        <v>0.07631065289230871</v>
       </c>
       <c r="Q6">
-        <v>4.028234163175935</v>
+        <v>2.374163712963778</v>
       </c>
       <c r="R6">
-        <v>4.028234163175935</v>
+        <v>21.367473416674</v>
       </c>
       <c r="S6">
-        <v>0.0722903315028644</v>
+        <v>0.003025419370679749</v>
       </c>
       <c r="T6">
-        <v>0.0722903315028644</v>
+        <v>0.00302541937067975</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.10584793980201</v>
+        <v>1.158105666666667</v>
       </c>
       <c r="H7">
-        <v>2.10584793980201</v>
+        <v>3.474317</v>
       </c>
       <c r="I7">
-        <v>0.1087693648124475</v>
+        <v>0.03964609469334889</v>
       </c>
       <c r="J7">
-        <v>0.1087693648124475</v>
+        <v>0.03964609469334889</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.965274436585474</v>
+        <v>1.046311</v>
       </c>
       <c r="N7">
-        <v>0.965274436585474</v>
+        <v>3.138933</v>
       </c>
       <c r="O7">
-        <v>0.3353796666228988</v>
+        <v>0.03894784958984768</v>
       </c>
       <c r="P7">
-        <v>0.3353796666228988</v>
+        <v>0.03894784958984768</v>
       </c>
       <c r="Q7">
-        <v>2.032721183627066</v>
+        <v>1.211738698195667</v>
       </c>
       <c r="R7">
-        <v>2.032721183627066</v>
+        <v>10.905648283761</v>
       </c>
       <c r="S7">
-        <v>0.03647903330958309</v>
+        <v>0.001544130132941411</v>
       </c>
       <c r="T7">
-        <v>0.03647903330958309</v>
+        <v>0.001544130132941411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.924119999999999</v>
+      </c>
+      <c r="H8">
+        <v>14.77236</v>
+      </c>
+      <c r="I8">
+        <v>0.1685702206805652</v>
+      </c>
+      <c r="J8">
+        <v>0.1685702206805652</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>23.76805833333333</v>
+      </c>
+      <c r="N8">
+        <v>71.304175</v>
+      </c>
+      <c r="O8">
+        <v>0.8847414975178436</v>
+      </c>
+      <c r="P8">
+        <v>0.8847414975178437</v>
+      </c>
+      <c r="Q8">
+        <v>117.0367714003333</v>
+      </c>
+      <c r="R8">
+        <v>1053.330942603</v>
+      </c>
+      <c r="S8">
+        <v>0.1491410694818366</v>
+      </c>
+      <c r="T8">
+        <v>0.1491410694818367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.924119999999999</v>
+      </c>
+      <c r="H9">
+        <v>14.77236</v>
+      </c>
+      <c r="I9">
+        <v>0.1685702206805652</v>
+      </c>
+      <c r="J9">
+        <v>0.1685702206805652</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.050040666666666</v>
+      </c>
+      <c r="N9">
+        <v>6.150122</v>
+      </c>
+      <c r="O9">
+        <v>0.07631065289230869</v>
+      </c>
+      <c r="P9">
+        <v>0.07631065289230871</v>
+      </c>
+      <c r="Q9">
+        <v>10.09464624754666</v>
+      </c>
+      <c r="R9">
+        <v>90.85181622791998</v>
+      </c>
+      <c r="S9">
+        <v>0.01286370359833449</v>
+      </c>
+      <c r="T9">
+        <v>0.01286370359833449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.924119999999999</v>
+      </c>
+      <c r="H10">
+        <v>14.77236</v>
+      </c>
+      <c r="I10">
+        <v>0.1685702206805652</v>
+      </c>
+      <c r="J10">
+        <v>0.1685702206805652</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.046311</v>
+      </c>
+      <c r="N10">
+        <v>3.138933</v>
+      </c>
+      <c r="O10">
+        <v>0.03894784958984768</v>
+      </c>
+      <c r="P10">
+        <v>0.03894784958984768</v>
+      </c>
+      <c r="Q10">
+        <v>5.152160921319999</v>
+      </c>
+      <c r="R10">
+        <v>46.36944829187999</v>
+      </c>
+      <c r="S10">
+        <v>0.006565447600394086</v>
+      </c>
+      <c r="T10">
+        <v>0.006565447600394086</v>
       </c>
     </row>
   </sheetData>
